--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.37886691114117</v>
+        <v>1.619567</v>
       </c>
       <c r="N2">
-        <v>1.37886691114117</v>
+        <v>3.239134</v>
       </c>
       <c r="O2">
-        <v>0.04945559259351245</v>
+        <v>0.05049533395284948</v>
       </c>
       <c r="P2">
-        <v>0.04945559259351245</v>
+        <v>0.04454651624622217</v>
       </c>
       <c r="Q2">
-        <v>268.6477774730652</v>
+        <v>315.9438970597295</v>
       </c>
       <c r="R2">
-        <v>268.6477774730652</v>
+        <v>1263.775588238918</v>
       </c>
       <c r="S2">
-        <v>0.01324854034307289</v>
+        <v>0.01333382577210848</v>
       </c>
       <c r="T2">
-        <v>0.01324854034307289</v>
+        <v>0.008830483816544573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.91913315115517</v>
+        <v>3.351459333333333</v>
       </c>
       <c r="N3">
-        <v>2.91913315115517</v>
+        <v>10.054378</v>
       </c>
       <c r="O3">
-        <v>0.1047000683555933</v>
+        <v>0.1044927800245751</v>
       </c>
       <c r="P3">
-        <v>0.1047000683555933</v>
+        <v>0.1382738450841054</v>
       </c>
       <c r="Q3">
-        <v>568.7413534035358</v>
+        <v>653.8001346103842</v>
       </c>
       <c r="R3">
-        <v>568.7413534035358</v>
+        <v>3922.800807662306</v>
       </c>
       <c r="S3">
-        <v>0.02804785074425595</v>
+        <v>0.02759242120454017</v>
       </c>
       <c r="T3">
-        <v>0.02804785074425595</v>
+        <v>0.0274101109168135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.97081094566427</v>
+        <v>0.09988799999999999</v>
       </c>
       <c r="N4">
-        <v>2.97081094566427</v>
+        <v>0.299664</v>
       </c>
       <c r="O4">
-        <v>0.1065535873070765</v>
+        <v>0.003114337299958711</v>
       </c>
       <c r="P4">
-        <v>0.1065535873070765</v>
+        <v>0.004121159311225754</v>
       </c>
       <c r="Q4">
-        <v>578.809855684216</v>
+        <v>19.486074975288</v>
       </c>
       <c r="R4">
-        <v>578.809855684216</v>
+        <v>116.916449851728</v>
       </c>
       <c r="S4">
-        <v>0.02854438550033927</v>
+        <v>0.0008223736274722639</v>
       </c>
       <c r="T4">
-        <v>0.02854438550033927</v>
+        <v>0.0008169399914918656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>20.6120986896425</v>
+        <v>0.03514233333333334</v>
       </c>
       <c r="N5">
-        <v>20.6120986896425</v>
+        <v>0.105427</v>
       </c>
       <c r="O5">
-        <v>0.7392907517438176</v>
+        <v>0.001095677954384734</v>
       </c>
       <c r="P5">
-        <v>0.7392907517438176</v>
+        <v>0.00144989542522491</v>
       </c>
       <c r="Q5">
-        <v>4015.90208401267</v>
+        <v>6.855539625779834</v>
       </c>
       <c r="R5">
-        <v>4015.90208401267</v>
+        <v>41.133237754679</v>
       </c>
       <c r="S5">
-        <v>0.1980468302188232</v>
+        <v>0.0002893253257765977</v>
       </c>
       <c r="T5">
-        <v>0.1980468302188232</v>
+        <v>0.000287413678263031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.37886691114117</v>
+        <v>5.079835999999999</v>
       </c>
       <c r="N6">
-        <v>1.37886691114117</v>
+        <v>15.239508</v>
       </c>
       <c r="O6">
-        <v>0.04945559259351245</v>
+        <v>0.158380613611976</v>
       </c>
       <c r="P6">
-        <v>0.04945559259351245</v>
+        <v>0.2095828671201724</v>
       </c>
       <c r="Q6">
-        <v>81.08151893340974</v>
+        <v>990.9705385848858</v>
       </c>
       <c r="R6">
-        <v>81.08151893340974</v>
+        <v>5945.823231509316</v>
       </c>
       <c r="S6">
-        <v>0.003998587983012844</v>
+        <v>0.04182207230382223</v>
       </c>
       <c r="T6">
-        <v>0.003998587983012844</v>
+        <v>0.04154574301838131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91913315115517</v>
+        <v>21.8877045</v>
       </c>
       <c r="N7">
-        <v>2.91913315115517</v>
+        <v>43.775409</v>
       </c>
       <c r="O7">
-        <v>0.1047000683555933</v>
+        <v>0.6824212571562562</v>
       </c>
       <c r="P7">
-        <v>0.1047000683555933</v>
+        <v>0.6020257168130494</v>
       </c>
       <c r="Q7">
-        <v>171.6538035339798</v>
+        <v>4269.836726373023</v>
       </c>
       <c r="R7">
-        <v>171.6538035339798</v>
+        <v>17079.34690549209</v>
       </c>
       <c r="S7">
-        <v>0.008465219264245908</v>
+        <v>0.180200534065213</v>
       </c>
       <c r="T7">
-        <v>0.008465219264245908</v>
+        <v>0.1193399349138133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97081094566427</v>
+        <v>1.619567</v>
       </c>
       <c r="N8">
-        <v>2.97081094566427</v>
+        <v>3.239134</v>
       </c>
       <c r="O8">
-        <v>0.1065535873070765</v>
+        <v>0.05049533395284948</v>
       </c>
       <c r="P8">
-        <v>0.1065535873070765</v>
+        <v>0.04454651624622217</v>
       </c>
       <c r="Q8">
-        <v>174.692613182736</v>
+        <v>101.0738115496297</v>
       </c>
       <c r="R8">
-        <v>174.692613182736</v>
+        <v>606.442869297778</v>
       </c>
       <c r="S8">
-        <v>0.008615080143815261</v>
+        <v>0.004265632619803078</v>
       </c>
       <c r="T8">
-        <v>0.008615080143815261</v>
+        <v>0.004237448478060396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.6120986896425</v>
+        <v>3.351459333333333</v>
       </c>
       <c r="N9">
-        <v>20.6120986896425</v>
+        <v>10.054378</v>
       </c>
       <c r="O9">
-        <v>0.7392907517438176</v>
+        <v>0.1044927800245751</v>
       </c>
       <c r="P9">
-        <v>0.7392907517438176</v>
+        <v>0.1382738450841054</v>
       </c>
       <c r="Q9">
-        <v>1212.053358201481</v>
+        <v>209.1576137779918</v>
       </c>
       <c r="R9">
-        <v>1212.053358201481</v>
+        <v>1882.418524001926</v>
       </c>
       <c r="S9">
-        <v>0.05977320179281691</v>
+        <v>0.008827108885405879</v>
       </c>
       <c r="T9">
-        <v>0.05977320179281691</v>
+        <v>0.01315317882926237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.37886691114117</v>
+        <v>0.09988799999999999</v>
       </c>
       <c r="N10">
-        <v>1.37886691114117</v>
+        <v>0.299664</v>
       </c>
       <c r="O10">
-        <v>0.04945559259351245</v>
+        <v>0.003114337299958711</v>
       </c>
       <c r="P10">
-        <v>0.04945559259351245</v>
+        <v>0.004121159311225754</v>
       </c>
       <c r="Q10">
-        <v>196.8423135474331</v>
+        <v>6.233802546032</v>
       </c>
       <c r="R10">
-        <v>196.8423135474331</v>
+        <v>56.104222914288</v>
       </c>
       <c r="S10">
-        <v>0.009707407062090573</v>
+        <v>0.0002630860662923422</v>
       </c>
       <c r="T10">
-        <v>0.009707407062090573</v>
+        <v>0.0003920216825637626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.91913315115517</v>
+        <v>0.03514233333333334</v>
       </c>
       <c r="N11">
-        <v>2.91913315115517</v>
+        <v>0.105427</v>
       </c>
       <c r="O11">
-        <v>0.1047000683555933</v>
+        <v>0.001095677954384734</v>
       </c>
       <c r="P11">
-        <v>0.1047000683555933</v>
+        <v>0.00144989542522491</v>
       </c>
       <c r="Q11">
-        <v>416.7254420158924</v>
+        <v>2.193160009278778</v>
       </c>
       <c r="R11">
-        <v>416.7254420158924</v>
+        <v>19.738440083509</v>
       </c>
       <c r="S11">
-        <v>0.02055108693793669</v>
+        <v>9.255824760732945E-05</v>
       </c>
       <c r="T11">
-        <v>0.02055108693793669</v>
+        <v>0.0001379200368667901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.97081094566427</v>
+        <v>5.079835999999999</v>
       </c>
       <c r="N12">
-        <v>2.97081094566427</v>
+        <v>15.239508</v>
       </c>
       <c r="O12">
-        <v>0.1065535873070765</v>
+        <v>0.158380613611976</v>
       </c>
       <c r="P12">
-        <v>0.1065535873070765</v>
+        <v>0.2095828671201724</v>
       </c>
       <c r="Q12">
-        <v>424.1027868111064</v>
+        <v>317.0220105540707</v>
       </c>
       <c r="R12">
-        <v>424.1027868111064</v>
+        <v>2853.198094986636</v>
       </c>
       <c r="S12">
-        <v>0.0209149055076025</v>
+        <v>0.01337932555111952</v>
       </c>
       <c r="T12">
-        <v>0.0209149055076025</v>
+        <v>0.0199363873124697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.6120986896425</v>
+        <v>21.8877045</v>
       </c>
       <c r="N13">
-        <v>20.6120986896425</v>
+        <v>43.775409</v>
       </c>
       <c r="O13">
-        <v>0.7392907517438176</v>
+        <v>0.6824212571562562</v>
       </c>
       <c r="P13">
-        <v>0.7392907517438176</v>
+        <v>0.6020257168130494</v>
       </c>
       <c r="Q13">
-        <v>2942.512551685888</v>
+        <v>1365.96616249095</v>
       </c>
       <c r="R13">
-        <v>2942.512551685888</v>
+        <v>8195.796974945702</v>
       </c>
       <c r="S13">
-        <v>0.1451119254277747</v>
+        <v>0.05764806660533996</v>
       </c>
       <c r="T13">
-        <v>0.1451119254277747</v>
+        <v>0.05726717086836215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.37886691114117</v>
+        <v>1.619567</v>
       </c>
       <c r="N14">
-        <v>1.37886691114117</v>
+        <v>3.239134</v>
       </c>
       <c r="O14">
-        <v>0.04945559259351245</v>
+        <v>0.05049533395284948</v>
       </c>
       <c r="P14">
-        <v>0.04945559259351245</v>
+        <v>0.04454651624622217</v>
       </c>
       <c r="Q14">
-        <v>194.0816812723854</v>
+        <v>231.3747610657927</v>
       </c>
       <c r="R14">
-        <v>194.0816812723854</v>
+        <v>1388.248566394756</v>
       </c>
       <c r="S14">
-        <v>0.009571264681117311</v>
+        <v>0.009764742350858783</v>
       </c>
       <c r="T14">
-        <v>0.009571264681117311</v>
+        <v>0.009700224163985463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.91913315115517</v>
+        <v>3.351459333333333</v>
       </c>
       <c r="N15">
-        <v>2.91913315115517</v>
+        <v>10.054378</v>
       </c>
       <c r="O15">
-        <v>0.1047000683555933</v>
+        <v>0.1044927800245751</v>
       </c>
       <c r="P15">
-        <v>0.1047000683555933</v>
+        <v>0.1382738450841054</v>
       </c>
       <c r="Q15">
-        <v>410.8810395379396</v>
+        <v>478.7965564078057</v>
       </c>
       <c r="R15">
-        <v>410.8810395379396</v>
+        <v>4309.169007670252</v>
       </c>
       <c r="S15">
-        <v>0.02026286641834547</v>
+        <v>0.02020671999946957</v>
       </c>
       <c r="T15">
-        <v>0.02026286641834547</v>
+        <v>0.03010981343453029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.97081094566427</v>
+        <v>0.09988799999999999</v>
       </c>
       <c r="N16">
-        <v>2.97081094566427</v>
+        <v>0.299664</v>
       </c>
       <c r="O16">
-        <v>0.1065535873070765</v>
+        <v>0.003114337299958711</v>
       </c>
       <c r="P16">
-        <v>0.1065535873070765</v>
+        <v>0.004121159311225754</v>
       </c>
       <c r="Q16">
-        <v>418.1549201146185</v>
+        <v>14.270210576864</v>
       </c>
       <c r="R16">
-        <v>418.1549201146185</v>
+        <v>128.431895191776</v>
       </c>
       <c r="S16">
-        <v>0.02062158258260068</v>
+        <v>0.0006022477513697069</v>
       </c>
       <c r="T16">
-        <v>0.02062158258260068</v>
+        <v>0.0008974028162701944</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>20.6120986896425</v>
+        <v>0.03514233333333334</v>
       </c>
       <c r="N17">
-        <v>20.6120986896425</v>
+        <v>0.105427</v>
       </c>
       <c r="O17">
-        <v>0.7392907517438176</v>
+        <v>0.001095677954384734</v>
       </c>
       <c r="P17">
-        <v>0.7392907517438176</v>
+        <v>0.00144989542522491</v>
       </c>
       <c r="Q17">
-        <v>2901.245026561218</v>
+        <v>5.020507937179779</v>
       </c>
       <c r="R17">
-        <v>2901.245026561218</v>
+        <v>45.184571434618</v>
       </c>
       <c r="S17">
-        <v>0.1430767905138899</v>
+        <v>0.0002118812192444007</v>
       </c>
       <c r="T17">
-        <v>0.1430767905138899</v>
+        <v>0.0003157218975616616</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.37886691114117</v>
+        <v>5.079835999999999</v>
       </c>
       <c r="N18">
-        <v>1.37886691114117</v>
+        <v>15.239508</v>
       </c>
       <c r="O18">
-        <v>0.04945559259351245</v>
+        <v>0.158380613611976</v>
       </c>
       <c r="P18">
-        <v>0.04945559259351245</v>
+        <v>0.2095828671201724</v>
       </c>
       <c r="Q18">
-        <v>189.1803032452597</v>
+        <v>725.7160961870745</v>
       </c>
       <c r="R18">
-        <v>189.1803032452597</v>
+        <v>6531.444865683671</v>
       </c>
       <c r="S18">
-        <v>0.009329550027306203</v>
+        <v>0.03062750088425923</v>
       </c>
       <c r="T18">
-        <v>0.009329550027306203</v>
+        <v>0.04563770555613005</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.91913315115517</v>
+        <v>21.8877045</v>
       </c>
       <c r="N19">
-        <v>2.91913315115517</v>
+        <v>43.775409</v>
       </c>
       <c r="O19">
-        <v>0.1047000683555933</v>
+        <v>0.6824212571562562</v>
       </c>
       <c r="P19">
-        <v>0.1047000683555933</v>
+        <v>0.6020257168130494</v>
       </c>
       <c r="Q19">
-        <v>400.5045666748083</v>
+        <v>3126.9236771101</v>
       </c>
       <c r="R19">
-        <v>400.5045666748083</v>
+        <v>18761.5420626606</v>
       </c>
       <c r="S19">
-        <v>0.01975114389214747</v>
+        <v>0.1319660101090182</v>
       </c>
       <c r="T19">
-        <v>0.01975114389214747</v>
+        <v>0.1310940764322028</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.97081094566427</v>
+        <v>1.619567</v>
       </c>
       <c r="N20">
-        <v>2.97081094566427</v>
+        <v>3.239134</v>
       </c>
       <c r="O20">
-        <v>0.1065535873070765</v>
+        <v>0.05049533395284948</v>
       </c>
       <c r="P20">
-        <v>0.1065535873070765</v>
+        <v>0.04454651624622217</v>
       </c>
       <c r="Q20">
-        <v>407.5947512004393</v>
+        <v>229.3579634075583</v>
       </c>
       <c r="R20">
-        <v>407.5947512004393</v>
+        <v>1376.14778044535</v>
       </c>
       <c r="S20">
-        <v>0.020100800965849</v>
+        <v>0.009679627148942382</v>
       </c>
       <c r="T20">
-        <v>0.020100800965849</v>
+        <v>0.009615671340297357</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.6120986896425</v>
+        <v>3.351459333333333</v>
       </c>
       <c r="N21">
-        <v>20.6120986896425</v>
+        <v>10.054378</v>
       </c>
       <c r="O21">
-        <v>0.7392907517438176</v>
+        <v>0.1044927800245751</v>
       </c>
       <c r="P21">
-        <v>0.7392907517438176</v>
+        <v>0.1382738450841054</v>
       </c>
       <c r="Q21">
-        <v>2827.976397954598</v>
+        <v>474.6230857609388</v>
       </c>
       <c r="R21">
-        <v>2827.976397954598</v>
+        <v>4271.60777184845</v>
       </c>
       <c r="S21">
-        <v>0.1394635003124709</v>
+        <v>0.02003058641693099</v>
       </c>
       <c r="T21">
-        <v>0.1394635003124709</v>
+        <v>0.02984735870115785</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>1.37886691114117</v>
+        <v>0.09988799999999999</v>
       </c>
       <c r="N22">
-        <v>1.37886691114117</v>
+        <v>0.299664</v>
       </c>
       <c r="O22">
-        <v>0.04945559259351245</v>
+        <v>0.003114337299958711</v>
       </c>
       <c r="P22">
-        <v>0.04945559259351245</v>
+        <v>0.004121159311225754</v>
       </c>
       <c r="Q22">
-        <v>73.00405328541459</v>
+        <v>14.1458230804</v>
       </c>
       <c r="R22">
-        <v>73.00405328541459</v>
+        <v>127.3124077236</v>
       </c>
       <c r="S22">
-        <v>0.003600242496912635</v>
+        <v>0.000596998207949135</v>
       </c>
       <c r="T22">
-        <v>0.003600242496912635</v>
+        <v>0.0008895805287829608</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.91913315115517</v>
+        <v>0.03514233333333334</v>
       </c>
       <c r="N23">
-        <v>2.91913315115517</v>
+        <v>0.105427</v>
       </c>
       <c r="O23">
-        <v>0.1047000683555933</v>
+        <v>0.001095677954384734</v>
       </c>
       <c r="P23">
-        <v>0.1047000683555933</v>
+        <v>0.00144989542522491</v>
       </c>
       <c r="Q23">
-        <v>154.5533875620966</v>
+        <v>4.976746255463889</v>
       </c>
       <c r="R23">
-        <v>154.5533875620966</v>
+        <v>44.790716299175</v>
       </c>
       <c r="S23">
-        <v>0.007621901098661837</v>
+        <v>0.0002100343386908453</v>
       </c>
       <c r="T23">
-        <v>0.007621901098661837</v>
+        <v>0.0003129698809600126</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.97081094566427</v>
+        <v>5.079835999999999</v>
       </c>
       <c r="N24">
-        <v>2.97081094566427</v>
+        <v>15.239508</v>
       </c>
       <c r="O24">
-        <v>0.1065535873070765</v>
+        <v>0.158380613611976</v>
       </c>
       <c r="P24">
-        <v>0.1065535873070765</v>
+        <v>0.2095828671201724</v>
       </c>
       <c r="Q24">
-        <v>157.2894663188873</v>
+        <v>719.3903305046332</v>
       </c>
       <c r="R24">
-        <v>157.2894663188873</v>
+        <v>6474.5129745417</v>
       </c>
       <c r="S24">
-        <v>0.007756832606869834</v>
+        <v>0.03036053368448164</v>
       </c>
       <c r="T24">
-        <v>0.007756832606869834</v>
+        <v>0.04523990063882268</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.6120986896425</v>
+        <v>21.8877045</v>
       </c>
       <c r="N25">
-        <v>20.6120986896425</v>
+        <v>43.775409</v>
       </c>
       <c r="O25">
-        <v>0.7392907517438176</v>
+        <v>0.6824212571562562</v>
       </c>
       <c r="P25">
-        <v>0.7392907517438176</v>
+        <v>0.6020257168130494</v>
       </c>
       <c r="Q25">
-        <v>1091.306738093758</v>
+        <v>3099.667582623287</v>
       </c>
       <c r="R25">
-        <v>1091.306738093758</v>
+        <v>18598.00549573972</v>
       </c>
       <c r="S25">
-        <v>0.05381850347804205</v>
+        <v>0.1308157172294992</v>
       </c>
       <c r="T25">
-        <v>0.05381850347804205</v>
+        <v>0.1299513838362645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.783834</v>
+      </c>
+      <c r="H26">
+        <v>431.351502</v>
+      </c>
+      <c r="I26">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J26">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.619567</v>
+      </c>
+      <c r="N26">
+        <v>3.239134</v>
+      </c>
+      <c r="O26">
+        <v>0.05049533395284948</v>
+      </c>
+      <c r="P26">
+        <v>0.04454651624622217</v>
+      </c>
+      <c r="Q26">
+        <v>232.867552679878</v>
+      </c>
+      <c r="R26">
+        <v>1397.205316079268</v>
+      </c>
+      <c r="S26">
+        <v>0.009827742850256038</v>
+      </c>
+      <c r="T26">
+        <v>0.009762808402733214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>143.783834</v>
+      </c>
+      <c r="H27">
+        <v>431.351502</v>
+      </c>
+      <c r="I27">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J27">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.351459333333333</v>
+      </c>
+      <c r="N27">
+        <v>10.054378</v>
+      </c>
+      <c r="O27">
+        <v>0.1044927800245751</v>
+      </c>
+      <c r="P27">
+        <v>0.1382738450841054</v>
+      </c>
+      <c r="Q27">
+        <v>481.8856724417506</v>
+      </c>
+      <c r="R27">
+        <v>4336.971051975755</v>
+      </c>
+      <c r="S27">
+        <v>0.02033709040817116</v>
+      </c>
+      <c r="T27">
+        <v>0.03030407696089633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>143.783834</v>
+      </c>
+      <c r="H28">
+        <v>431.351502</v>
+      </c>
+      <c r="I28">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J28">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.09988799999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.299664</v>
+      </c>
+      <c r="O28">
+        <v>0.003114337299958711</v>
+      </c>
+      <c r="P28">
+        <v>0.004121159311225754</v>
+      </c>
+      <c r="Q28">
+        <v>14.362279610592</v>
+      </c>
+      <c r="R28">
+        <v>129.260516495328</v>
+      </c>
+      <c r="S28">
+        <v>0.0006061333540547413</v>
+      </c>
+      <c r="T28">
+        <v>0.0009031927105197395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>143.783834</v>
+      </c>
+      <c r="H29">
+        <v>431.351502</v>
+      </c>
+      <c r="I29">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J29">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03514233333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.105427</v>
+      </c>
+      <c r="O29">
+        <v>0.001095677954384734</v>
+      </c>
+      <c r="P29">
+        <v>0.00144989542522491</v>
+      </c>
+      <c r="Q29">
+        <v>5.052899422372667</v>
+      </c>
+      <c r="R29">
+        <v>45.476094801354</v>
+      </c>
+      <c r="S29">
+        <v>0.0002132482417571988</v>
+      </c>
+      <c r="T29">
+        <v>0.000317758882922088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>143.783834</v>
+      </c>
+      <c r="H30">
+        <v>431.351502</v>
+      </c>
+      <c r="I30">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J30">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.079835999999999</v>
+      </c>
+      <c r="N30">
+        <v>15.239508</v>
+      </c>
+      <c r="O30">
+        <v>0.158380613611976</v>
+      </c>
+      <c r="P30">
+        <v>0.2095828671201724</v>
+      </c>
+      <c r="Q30">
+        <v>730.3982961712238</v>
+      </c>
+      <c r="R30">
+        <v>6573.584665541015</v>
+      </c>
+      <c r="S30">
+        <v>0.03082510444425777</v>
+      </c>
+      <c r="T30">
+        <v>0.04593215246912292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>143.783834</v>
+      </c>
+      <c r="H31">
+        <v>431.351502</v>
+      </c>
+      <c r="I31">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J31">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.8877045</v>
+      </c>
+      <c r="N31">
+        <v>43.775409</v>
+      </c>
+      <c r="O31">
+        <v>0.6824212571562562</v>
+      </c>
+      <c r="P31">
+        <v>0.6020257168130494</v>
+      </c>
+      <c r="Q31">
+        <v>3147.098070469052</v>
+      </c>
+      <c r="R31">
+        <v>18882.58842281431</v>
+      </c>
+      <c r="S31">
+        <v>0.1328174329363292</v>
+      </c>
+      <c r="T31">
+        <v>0.1319398736879311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H32">
+        <v>106.034229</v>
+      </c>
+      <c r="I32">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J32">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.619567</v>
+      </c>
+      <c r="N32">
+        <v>3.239134</v>
+      </c>
+      <c r="O32">
+        <v>0.05049533395284948</v>
+      </c>
+      <c r="P32">
+        <v>0.04454651624622217</v>
+      </c>
+      <c r="Q32">
+        <v>85.86476907942151</v>
+      </c>
+      <c r="R32">
+        <v>343.459076317686</v>
+      </c>
+      <c r="S32">
+        <v>0.003623763210880723</v>
+      </c>
+      <c r="T32">
+        <v>0.002399880044601162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H33">
+        <v>106.034229</v>
+      </c>
+      <c r="I33">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J33">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.351459333333333</v>
+      </c>
+      <c r="N33">
+        <v>10.054378</v>
+      </c>
+      <c r="O33">
+        <v>0.1044927800245751</v>
+      </c>
+      <c r="P33">
+        <v>0.1382738450841054</v>
+      </c>
+      <c r="Q33">
+        <v>177.684703217427</v>
+      </c>
+      <c r="R33">
+        <v>1066.108219304562</v>
+      </c>
+      <c r="S33">
+        <v>0.007498853110057296</v>
+      </c>
+      <c r="T33">
+        <v>0.007449306241445071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H34">
+        <v>106.034229</v>
+      </c>
+      <c r="I34">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J34">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.09988799999999999</v>
+      </c>
+      <c r="N34">
+        <v>0.299664</v>
+      </c>
+      <c r="O34">
+        <v>0.003114337299958711</v>
+      </c>
+      <c r="P34">
+        <v>0.004121159311225754</v>
+      </c>
+      <c r="Q34">
+        <v>5.295773533176</v>
+      </c>
+      <c r="R34">
+        <v>31.774641199056</v>
+      </c>
+      <c r="S34">
+        <v>0.0002234982928205216</v>
+      </c>
+      <c r="T34">
+        <v>0.0002220215815972302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H35">
+        <v>106.034229</v>
+      </c>
+      <c r="I35">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J35">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.03514233333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.105427</v>
+      </c>
+      <c r="O35">
+        <v>0.001095677954384734</v>
+      </c>
+      <c r="P35">
+        <v>0.00144989542522491</v>
+      </c>
+      <c r="Q35">
+        <v>1.8631451101305</v>
+      </c>
+      <c r="R35">
+        <v>11.178870660783</v>
+      </c>
+      <c r="S35">
+        <v>7.863058130836246E-05</v>
+      </c>
+      <c r="T35">
+        <v>7.811104865132677E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H36">
+        <v>106.034229</v>
+      </c>
+      <c r="I36">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J36">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.079835999999999</v>
+      </c>
+      <c r="N36">
+        <v>15.239508</v>
+      </c>
+      <c r="O36">
+        <v>0.158380613611976</v>
+      </c>
+      <c r="P36">
+        <v>0.2095828671201724</v>
+      </c>
+      <c r="Q36">
+        <v>269.318246853222</v>
+      </c>
+      <c r="R36">
+        <v>1615.909481119332</v>
+      </c>
+      <c r="S36">
+        <v>0.01136607674403559</v>
+      </c>
+      <c r="T36">
+        <v>0.01129097812524575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H37">
+        <v>106.034229</v>
+      </c>
+      <c r="I37">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J37">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>21.8877045</v>
+      </c>
+      <c r="N37">
+        <v>43.775409</v>
+      </c>
+      <c r="O37">
+        <v>0.6824212571562562</v>
+      </c>
+      <c r="P37">
+        <v>0.6020257168130494</v>
+      </c>
+      <c r="Q37">
+        <v>1160.422935618665</v>
+      </c>
+      <c r="R37">
+        <v>4641.691742474661</v>
+      </c>
+      <c r="S37">
+        <v>0.04897349621085663</v>
+      </c>
+      <c r="T37">
+        <v>0.03243327707447548</v>
       </c>
     </row>
   </sheetData>
